--- a/hasil_excel/HASIL_MDT001_2024_Wustha.xlsx
+++ b/hasil_excel/HASIL_MDT001_2024_Wustha.xlsx
@@ -527,7 +527,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000412</t>
+          <t>MDT-12-II-2024-004522</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000413</t>
+          <t>MDT-12-II-2024-004523</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000414</t>
+          <t>MDT-12-II-2024-004524</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000415</t>
+          <t>MDT-12-II-2024-004525</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000416</t>
+          <t>MDT-12-II-2024-004526</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000417</t>
+          <t>MDT-12-II-2024-004527</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000418</t>
+          <t>MDT-12-II-2024-004528</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000419</t>
+          <t>MDT-12-II-2024-004529</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000420</t>
+          <t>MDT-12-II-2024-004530</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000421</t>
+          <t>MDT-12-II-2024-004531</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000422</t>
+          <t>MDT-12-II-2024-004532</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000423</t>
+          <t>MDT-12-II-2024-004533</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000424</t>
+          <t>MDT-12-II-2024-004534</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000425</t>
+          <t>MDT-12-II-2024-004535</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000426</t>
+          <t>MDT-12-II-2024-004536</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000427</t>
+          <t>MDT-12-II-2024-004537</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000428</t>
+          <t>MDT-12-II-2024-004538</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000429</t>
+          <t>MDT-12-II-2024-004539</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000430</t>
+          <t>MDT-12-II-2024-004540</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000431</t>
+          <t>MDT-12-II-2024-004541</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000432</t>
+          <t>MDT-12-II-2024-004542</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000433</t>
+          <t>MDT-12-II-2024-004543</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000434</t>
+          <t>MDT-12-II-2024-004544</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000435</t>
+          <t>MDT-12-II-2024-004545</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000436</t>
+          <t>MDT-12-II-2024-004546</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000437</t>
+          <t>MDT-12-II-2024-004547</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000438</t>
+          <t>MDT-12-II-2024-004548</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000439</t>
+          <t>MDT-12-II-2024-004549</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000440</t>
+          <t>MDT-12-II-2024-004550</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000441</t>
+          <t>MDT-12-II-2024-004551</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000442</t>
+          <t>MDT-12-II-2024-004552</t>
         </is>
       </c>
     </row>
@@ -2015,7 +2015,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000443</t>
+          <t>MDT-12-II-2024-004553</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000444</t>
+          <t>MDT-12-II-2024-004554</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000445</t>
+          <t>MDT-12-II-2024-004555</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000446</t>
+          <t>MDT-12-II-2024-004556</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000447</t>
+          <t>MDT-12-II-2024-004557</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000448</t>
+          <t>MDT-12-II-2024-004558</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000449</t>
+          <t>MDT-12-II-2024-004559</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000450</t>
+          <t>MDT-12-II-2024-004560</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000451</t>
+          <t>MDT-12-II-2024-004561</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000452</t>
+          <t>MDT-12-II-2024-004562</t>
         </is>
       </c>
     </row>
@@ -2495,7 +2495,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000453</t>
+          <t>MDT-12-II-2024-004563</t>
         </is>
       </c>
     </row>
@@ -2543,7 +2543,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000454</t>
+          <t>MDT-12-II-2024-004564</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000455</t>
+          <t>MDT-12-II-2024-004565</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000456</t>
+          <t>MDT-12-II-2024-004566</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000457</t>
+          <t>MDT-12-II-2024-004567</t>
         </is>
       </c>
     </row>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000458</t>
+          <t>MDT-12-II-2024-004568</t>
         </is>
       </c>
     </row>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000459</t>
+          <t>MDT-12-II-2024-004569</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000460</t>
+          <t>MDT-12-II-2024-004570</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000461</t>
+          <t>MDT-12-II-2024-004571</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000462</t>
+          <t>MDT-12-II-2024-004572</t>
         </is>
       </c>
     </row>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000463</t>
+          <t>MDT-12-II-2024-004573</t>
         </is>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000464</t>
+          <t>MDT-12-II-2024-004574</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000465</t>
+          <t>MDT-12-II-2024-004575</t>
         </is>
       </c>
     </row>
@@ -3119,7 +3119,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000466</t>
+          <t>MDT-12-II-2024-004576</t>
         </is>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000467</t>
+          <t>MDT-12-II-2024-004577</t>
         </is>
       </c>
     </row>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000468</t>
+          <t>MDT-12-II-2024-004578</t>
         </is>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000469</t>
+          <t>MDT-12-II-2024-004579</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000470</t>
+          <t>MDT-12-II-2024-004580</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000471</t>
+          <t>MDT-12-II-2024-004581</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000472</t>
+          <t>MDT-12-II-2024-004582</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000473</t>
+          <t>MDT-12-II-2024-004583</t>
         </is>
       </c>
     </row>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000474</t>
+          <t>MDT-12-II-2024-004584</t>
         </is>
       </c>
     </row>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000475</t>
+          <t>MDT-12-II-2024-004585</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000476</t>
+          <t>MDT-12-II-2024-004586</t>
         </is>
       </c>
     </row>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000477</t>
+          <t>MDT-12-II-2024-004587</t>
         </is>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000478</t>
+          <t>MDT-12-II-2024-004588</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000479</t>
+          <t>MDT-12-II-2024-004589</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000480</t>
+          <t>MDT-12-II-2024-004590</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000481</t>
+          <t>MDT-12-II-2024-004591</t>
         </is>
       </c>
     </row>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000482</t>
+          <t>MDT-12-II-2024-004592</t>
         </is>
       </c>
     </row>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000483</t>
+          <t>MDT-12-II-2024-004593</t>
         </is>
       </c>
     </row>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000484</t>
+          <t>MDT-12-II-2024-004594</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000485</t>
+          <t>MDT-12-II-2024-004595</t>
         </is>
       </c>
     </row>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000486</t>
+          <t>MDT-12-II-2024-004596</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000487</t>
+          <t>MDT-12-II-2024-004597</t>
         </is>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000488</t>
+          <t>MDT-12-II-2024-004598</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000489</t>
+          <t>MDT-12-II-2024-004599</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000490</t>
+          <t>MDT-12-II-2024-004600</t>
         </is>
       </c>
     </row>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000491</t>
+          <t>MDT-12-II-2024-004601</t>
         </is>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000492</t>
+          <t>MDT-12-II-2024-004602</t>
         </is>
       </c>
     </row>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000493</t>
+          <t>MDT-12-II-2024-004603</t>
         </is>
       </c>
     </row>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000494</t>
+          <t>MDT-12-II-2024-004604</t>
         </is>
       </c>
     </row>
@@ -4503,7 +4503,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000495</t>
+          <t>MDT-12-II-2024-004605</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000496</t>
+          <t>MDT-12-II-2024-004606</t>
         </is>
       </c>
     </row>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000497</t>
+          <t>MDT-12-II-2024-004607</t>
         </is>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000498</t>
+          <t>MDT-12-II-2024-004608</t>
         </is>
       </c>
     </row>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000499</t>
+          <t>MDT-12-II-2024-004609</t>
         </is>
       </c>
     </row>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000500</t>
+          <t>MDT-12-II-2024-004610</t>
         </is>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000501</t>
+          <t>MDT-12-II-2024-004611</t>
         </is>
       </c>
     </row>
@@ -4839,7 +4839,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000502</t>
+          <t>MDT-12-II-2024-004612</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000503</t>
+          <t>MDT-12-II-2024-004613</t>
         </is>
       </c>
     </row>
@@ -4935,7 +4935,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000504</t>
+          <t>MDT-12-II-2024-004614</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000505</t>
+          <t>MDT-12-II-2024-004615</t>
         </is>
       </c>
     </row>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000506</t>
+          <t>MDT-12-II-2024-004616</t>
         </is>
       </c>
     </row>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000507</t>
+          <t>MDT-12-II-2024-004617</t>
         </is>
       </c>
     </row>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000508</t>
+          <t>MDT-12-II-2024-004618</t>
         </is>
       </c>
     </row>
@@ -5175,7 +5175,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000509</t>
+          <t>MDT-12-II-2024-004619</t>
         </is>
       </c>
     </row>
@@ -5223,7 +5223,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000510</t>
+          <t>MDT-12-II-2024-004620</t>
         </is>
       </c>
     </row>
@@ -5271,7 +5271,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000511</t>
+          <t>MDT-12-II-2024-004621</t>
         </is>
       </c>
     </row>
@@ -5319,7 +5319,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000512</t>
+          <t>MDT-12-II-2024-004622</t>
         </is>
       </c>
     </row>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000513</t>
+          <t>MDT-12-II-2024-004623</t>
         </is>
       </c>
     </row>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000514</t>
+          <t>MDT-12-II-2024-004624</t>
         </is>
       </c>
     </row>
@@ -5463,7 +5463,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000515</t>
+          <t>MDT-12-II-2024-004625</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000516</t>
+          <t>MDT-12-II-2024-004626</t>
         </is>
       </c>
     </row>
@@ -5559,7 +5559,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000517</t>
+          <t>MDT-12-II-2024-004627</t>
         </is>
       </c>
     </row>
@@ -5607,7 +5607,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000518</t>
+          <t>MDT-12-II-2024-004628</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000519</t>
+          <t>MDT-12-II-2024-004629</t>
         </is>
       </c>
     </row>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000520</t>
+          <t>MDT-12-II-2024-004630</t>
         </is>
       </c>
     </row>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000521</t>
+          <t>MDT-12-II-2024-004631</t>
         </is>
       </c>
     </row>
@@ -5799,7 +5799,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000522</t>
+          <t>MDT-12-II-2024-004632</t>
         </is>
       </c>
     </row>
@@ -5847,7 +5847,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000523</t>
+          <t>MDT-12-II-2024-004633</t>
         </is>
       </c>
     </row>
@@ -5895,7 +5895,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000524</t>
+          <t>MDT-12-II-2024-004634</t>
         </is>
       </c>
     </row>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000525</t>
+          <t>MDT-12-II-2024-004635</t>
         </is>
       </c>
     </row>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000526</t>
+          <t>MDT-12-II-2024-004636</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000527</t>
+          <t>MDT-12-II-2024-004637</t>
         </is>
       </c>
     </row>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000528</t>
+          <t>MDT-12-II-2024-004638</t>
         </is>
       </c>
     </row>
@@ -6135,7 +6135,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000529</t>
+          <t>MDT-12-II-2024-004639</t>
         </is>
       </c>
     </row>
@@ -6183,7 +6183,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000530</t>
+          <t>MDT-12-II-2024-004640</t>
         </is>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000531</t>
+          <t>MDT-12-II-2024-004641</t>
         </is>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000532</t>
+          <t>MDT-12-II-2024-004642</t>
         </is>
       </c>
     </row>
@@ -6325,7 +6325,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000533</t>
+          <t>MDT-12-II-2024-004643</t>
         </is>
       </c>
     </row>
@@ -6371,7 +6371,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000534</t>
+          <t>MDT-12-II-2024-004644</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000535</t>
+          <t>MDT-12-II-2024-004645</t>
         </is>
       </c>
     </row>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000536</t>
+          <t>MDT-12-II-2024-004646</t>
         </is>
       </c>
     </row>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000537</t>
+          <t>MDT-12-II-2024-004647</t>
         </is>
       </c>
     </row>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000538</t>
+          <t>MDT-12-II-2024-004648</t>
         </is>
       </c>
     </row>
@@ -6601,7 +6601,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000539</t>
+          <t>MDT-12-II-2024-004649</t>
         </is>
       </c>
     </row>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000540</t>
+          <t>MDT-12-II-2024-004650</t>
         </is>
       </c>
     </row>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000541</t>
+          <t>MDT-12-II-2024-004651</t>
         </is>
       </c>
     </row>
@@ -6739,7 +6739,7 @@
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000542</t>
+          <t>MDT-12-II-2024-004652</t>
         </is>
       </c>
     </row>
@@ -6785,7 +6785,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000543</t>
+          <t>MDT-12-II-2024-004653</t>
         </is>
       </c>
     </row>
@@ -6831,7 +6831,7 @@
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000544</t>
+          <t>MDT-12-II-2024-004654</t>
         </is>
       </c>
     </row>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000545</t>
+          <t>MDT-12-II-2024-004655</t>
         </is>
       </c>
     </row>
@@ -6927,7 +6927,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000546</t>
+          <t>MDT-12-II-2024-004656</t>
         </is>
       </c>
     </row>
@@ -6975,7 +6975,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000547</t>
+          <t>MDT-12-II-2024-004657</t>
         </is>
       </c>
     </row>
@@ -7023,7 +7023,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000548</t>
+          <t>MDT-12-II-2024-004658</t>
         </is>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000549</t>
+          <t>MDT-12-II-2024-004659</t>
         </is>
       </c>
     </row>
@@ -7119,7 +7119,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000550</t>
+          <t>MDT-12-II-2024-004660</t>
         </is>
       </c>
     </row>
@@ -7167,7 +7167,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000551</t>
+          <t>MDT-12-II-2024-004661</t>
         </is>
       </c>
     </row>
@@ -7215,7 +7215,7 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000552</t>
+          <t>MDT-12-II-2024-004662</t>
         </is>
       </c>
     </row>
@@ -7263,7 +7263,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000553</t>
+          <t>MDT-12-II-2024-004663</t>
         </is>
       </c>
     </row>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000554</t>
+          <t>MDT-12-II-2024-004664</t>
         </is>
       </c>
     </row>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000555</t>
+          <t>MDT-12-II-2024-004665</t>
         </is>
       </c>
     </row>
@@ -7407,7 +7407,7 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000556</t>
+          <t>MDT-12-II-2024-004666</t>
         </is>
       </c>
     </row>
@@ -7453,7 +7453,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000557</t>
+          <t>MDT-12-II-2024-004667</t>
         </is>
       </c>
     </row>
@@ -7499,7 +7499,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000558</t>
+          <t>MDT-12-II-2024-004668</t>
         </is>
       </c>
     </row>
@@ -7545,7 +7545,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000559</t>
+          <t>MDT-12-II-2024-004669</t>
         </is>
       </c>
     </row>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000560</t>
+          <t>MDT-12-II-2024-004670</t>
         </is>
       </c>
     </row>
@@ -7637,7 +7637,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000561</t>
+          <t>MDT-12-II-2024-004671</t>
         </is>
       </c>
     </row>
@@ -7683,7 +7683,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000562</t>
+          <t>MDT-12-II-2024-004672</t>
         </is>
       </c>
     </row>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000563</t>
+          <t>MDT-12-II-2024-004673</t>
         </is>
       </c>
     </row>
@@ -7775,7 +7775,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000564</t>
+          <t>MDT-12-II-2024-004674</t>
         </is>
       </c>
     </row>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000565</t>
+          <t>MDT-12-II-2024-004675</t>
         </is>
       </c>
     </row>
@@ -7869,7 +7869,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000566</t>
+          <t>MDT-12-II-2024-004676</t>
         </is>
       </c>
     </row>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000567</t>
+          <t>MDT-12-II-2024-004677</t>
         </is>
       </c>
     </row>
@@ -7965,7 +7965,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000568</t>
+          <t>MDT-12-II-2024-004678</t>
         </is>
       </c>
     </row>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000569</t>
+          <t>MDT-12-II-2024-004679</t>
         </is>
       </c>
     </row>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000570</t>
+          <t>MDT-12-II-2024-004680</t>
         </is>
       </c>
     </row>
@@ -8109,7 +8109,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000571</t>
+          <t>MDT-12-II-2024-004681</t>
         </is>
       </c>
     </row>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000572</t>
+          <t>MDT-12-II-2024-004682</t>
         </is>
       </c>
     </row>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000573</t>
+          <t>MDT-12-II-2024-004683</t>
         </is>
       </c>
     </row>
@@ -8253,7 +8253,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000574</t>
+          <t>MDT-12-II-2024-004684</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000575</t>
+          <t>MDT-12-II-2024-004685</t>
         </is>
       </c>
     </row>
@@ -8349,7 +8349,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000576</t>
+          <t>MDT-12-II-2024-004686</t>
         </is>
       </c>
     </row>
@@ -8397,7 +8397,7 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000577</t>
+          <t>MDT-12-II-2024-004687</t>
         </is>
       </c>
     </row>
@@ -8445,7 +8445,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000578</t>
+          <t>MDT-12-II-2024-004688</t>
         </is>
       </c>
     </row>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000579</t>
+          <t>MDT-12-II-2024-004689</t>
         </is>
       </c>
     </row>
@@ -8541,7 +8541,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000580</t>
+          <t>MDT-12-II-2024-004690</t>
         </is>
       </c>
     </row>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000581</t>
+          <t>MDT-12-II-2024-004691</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000582</t>
+          <t>MDT-12-II-2024-004692</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000583</t>
+          <t>MDT-12-II-2024-004693</t>
         </is>
       </c>
     </row>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000584</t>
+          <t>MDT-12-II-2024-004694</t>
         </is>
       </c>
     </row>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000585</t>
+          <t>MDT-12-II-2024-004695</t>
         </is>
       </c>
     </row>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000586</t>
+          <t>MDT-12-II-2024-004696</t>
         </is>
       </c>
     </row>
@@ -8877,7 +8877,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000587</t>
+          <t>MDT-12-II-2024-004697</t>
         </is>
       </c>
     </row>
@@ -8925,7 +8925,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000588</t>
+          <t>MDT-12-II-2024-004698</t>
         </is>
       </c>
     </row>
@@ -8973,7 +8973,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000589</t>
+          <t>MDT-12-II-2024-004699</t>
         </is>
       </c>
     </row>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000590</t>
+          <t>MDT-12-II-2024-004700</t>
         </is>
       </c>
     </row>
@@ -9069,7 +9069,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000591</t>
+          <t>MDT-12-II-2024-004701</t>
         </is>
       </c>
     </row>
@@ -9117,7 +9117,7 @@
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000592</t>
+          <t>MDT-12-II-2024-004702</t>
         </is>
       </c>
     </row>
@@ -9165,7 +9165,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000593</t>
+          <t>MDT-12-II-2024-004703</t>
         </is>
       </c>
     </row>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000594</t>
+          <t>MDT-12-II-2024-004704</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000595</t>
+          <t>MDT-12-II-2024-004705</t>
         </is>
       </c>
     </row>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000596</t>
+          <t>MDT-12-II-2024-004706</t>
         </is>
       </c>
     </row>
@@ -9357,7 +9357,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000597</t>
+          <t>MDT-12-II-2024-004707</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000598</t>
+          <t>MDT-12-II-2024-004708</t>
         </is>
       </c>
     </row>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000599</t>
+          <t>MDT-12-II-2024-004709</t>
         </is>
       </c>
     </row>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000600</t>
+          <t>MDT-12-II-2024-004710</t>
         </is>
       </c>
     </row>
@@ -9549,7 +9549,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000601</t>
+          <t>MDT-12-II-2024-004711</t>
         </is>
       </c>
     </row>
@@ -9597,7 +9597,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000602</t>
+          <t>MDT-12-II-2024-004712</t>
         </is>
       </c>
     </row>
@@ -9645,7 +9645,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000603</t>
+          <t>MDT-12-II-2024-004713</t>
         </is>
       </c>
     </row>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000604</t>
+          <t>MDT-12-II-2024-004714</t>
         </is>
       </c>
     </row>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000605</t>
+          <t>MDT-12-II-2024-004715</t>
         </is>
       </c>
     </row>
@@ -9789,7 +9789,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000606</t>
+          <t>MDT-12-II-2024-004716</t>
         </is>
       </c>
     </row>
@@ -9835,7 +9835,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000607</t>
+          <t>MDT-12-II-2024-004717</t>
         </is>
       </c>
     </row>
@@ -9881,7 +9881,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000608</t>
+          <t>MDT-12-II-2024-004718</t>
         </is>
       </c>
     </row>
@@ -9927,7 +9927,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000609</t>
+          <t>MDT-12-II-2024-004719</t>
         </is>
       </c>
     </row>
@@ -9973,7 +9973,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000610</t>
+          <t>MDT-12-II-2024-004720</t>
         </is>
       </c>
     </row>
@@ -10019,7 +10019,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000611</t>
+          <t>MDT-12-II-2024-004721</t>
         </is>
       </c>
     </row>
@@ -10065,7 +10065,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000612</t>
+          <t>MDT-12-II-2024-004722</t>
         </is>
       </c>
     </row>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000613</t>
+          <t>MDT-12-II-2024-004723</t>
         </is>
       </c>
     </row>
@@ -10157,7 +10157,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000614</t>
+          <t>MDT-12-II-2024-004724</t>
         </is>
       </c>
     </row>
@@ -10203,7 +10203,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000615</t>
+          <t>MDT-12-II-2024-004725</t>
         </is>
       </c>
     </row>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000616</t>
+          <t>MDT-12-II-2024-004726</t>
         </is>
       </c>
     </row>
@@ -10295,7 +10295,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000617</t>
+          <t>MDT-12-II-2024-004727</t>
         </is>
       </c>
     </row>
@@ -10343,7 +10343,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000618</t>
+          <t>MDT-12-II-2024-004728</t>
         </is>
       </c>
     </row>
@@ -10391,7 +10391,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000619</t>
+          <t>MDT-12-II-2024-004729</t>
         </is>
       </c>
     </row>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000620</t>
+          <t>MDT-12-II-2024-004730</t>
         </is>
       </c>
     </row>
@@ -10487,7 +10487,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000621</t>
+          <t>MDT-12-II-2024-004731</t>
         </is>
       </c>
     </row>
@@ -10535,7 +10535,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000622</t>
+          <t>MDT-12-II-2024-004732</t>
         </is>
       </c>
     </row>
@@ -10583,7 +10583,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000623</t>
+          <t>MDT-12-II-2024-004733</t>
         </is>
       </c>
     </row>
@@ -10631,7 +10631,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000624</t>
+          <t>MDT-12-II-2024-004734</t>
         </is>
       </c>
     </row>
@@ -10679,7 +10679,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000625</t>
+          <t>MDT-12-II-2024-004735</t>
         </is>
       </c>
     </row>
@@ -10727,7 +10727,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000626</t>
+          <t>MDT-12-II-2024-004736</t>
         </is>
       </c>
     </row>
@@ -10775,7 +10775,7 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000627</t>
+          <t>MDT-12-II-2024-004737</t>
         </is>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000628</t>
+          <t>MDT-12-II-2024-004738</t>
         </is>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000629</t>
+          <t>MDT-12-II-2024-004739</t>
         </is>
       </c>
     </row>
@@ -10919,7 +10919,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000630</t>
+          <t>MDT-12-II-2024-004740</t>
         </is>
       </c>
     </row>
@@ -10967,7 +10967,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000631</t>
+          <t>MDT-12-II-2024-004741</t>
         </is>
       </c>
     </row>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000632</t>
+          <t>MDT-12-II-2024-004742</t>
         </is>
       </c>
     </row>
@@ -11063,7 +11063,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000633</t>
+          <t>MDT-12-II-2024-004743</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000634</t>
+          <t>MDT-12-II-2024-004744</t>
         </is>
       </c>
     </row>
@@ -11159,7 +11159,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000635</t>
+          <t>MDT-12-II-2024-004745</t>
         </is>
       </c>
     </row>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000636</t>
+          <t>MDT-12-II-2024-004746</t>
         </is>
       </c>
     </row>
@@ -11255,7 +11255,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000637</t>
+          <t>MDT-12-II-2024-004747</t>
         </is>
       </c>
     </row>
@@ -11303,7 +11303,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000638</t>
+          <t>MDT-12-II-2024-004748</t>
         </is>
       </c>
     </row>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000639</t>
+          <t>MDT-12-II-2024-004749</t>
         </is>
       </c>
     </row>
@@ -11399,7 +11399,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000640</t>
+          <t>MDT-12-II-2024-004750</t>
         </is>
       </c>
     </row>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000641</t>
+          <t>MDT-12-II-2024-004751</t>
         </is>
       </c>
     </row>
@@ -11495,7 +11495,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000642</t>
+          <t>MDT-12-II-2024-004752</t>
         </is>
       </c>
     </row>
@@ -11543,7 +11543,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000643</t>
+          <t>MDT-12-II-2024-004753</t>
         </is>
       </c>
     </row>
@@ -11591,7 +11591,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000644</t>
+          <t>MDT-12-II-2024-004754</t>
         </is>
       </c>
     </row>
@@ -11639,7 +11639,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000645</t>
+          <t>MDT-12-II-2024-004755</t>
         </is>
       </c>
     </row>
@@ -11687,7 +11687,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000646</t>
+          <t>MDT-12-II-2024-004756</t>
         </is>
       </c>
     </row>
@@ -11735,7 +11735,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000647</t>
+          <t>MDT-12-II-2024-004757</t>
         </is>
       </c>
     </row>
@@ -11783,7 +11783,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000648</t>
+          <t>MDT-12-II-2024-004758</t>
         </is>
       </c>
     </row>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000649</t>
+          <t>MDT-12-II-2024-004759</t>
         </is>
       </c>
     </row>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000650</t>
+          <t>MDT-12-II-2024-004760</t>
         </is>
       </c>
     </row>
@@ -11923,7 +11923,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000651</t>
+          <t>MDT-12-II-2024-004761</t>
         </is>
       </c>
     </row>
@@ -11969,7 +11969,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000652</t>
+          <t>MDT-12-II-2024-004762</t>
         </is>
       </c>
     </row>
@@ -12015,7 +12015,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000653</t>
+          <t>MDT-12-II-2024-004763</t>
         </is>
       </c>
     </row>
@@ -12061,7 +12061,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000654</t>
+          <t>MDT-12-II-2024-004764</t>
         </is>
       </c>
     </row>
@@ -12107,7 +12107,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000655</t>
+          <t>MDT-12-II-2024-004765</t>
         </is>
       </c>
     </row>
@@ -12153,7 +12153,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000656</t>
+          <t>MDT-12-II-2024-004766</t>
         </is>
       </c>
     </row>
@@ -12201,7 +12201,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000657</t>
+          <t>MDT-12-II-2024-004767</t>
         </is>
       </c>
     </row>
@@ -12249,7 +12249,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000658</t>
+          <t>MDT-12-II-2024-004768</t>
         </is>
       </c>
     </row>
@@ -12297,7 +12297,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000659</t>
+          <t>MDT-12-II-2024-004769</t>
         </is>
       </c>
     </row>
@@ -12345,7 +12345,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000660</t>
+          <t>MDT-12-II-2024-004770</t>
         </is>
       </c>
     </row>
@@ -12393,7 +12393,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000661</t>
+          <t>MDT-12-II-2024-004771</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000662</t>
+          <t>MDT-12-II-2024-004772</t>
         </is>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000663</t>
+          <t>MDT-12-II-2024-004773</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000664</t>
+          <t>MDT-12-II-2024-004774</t>
         </is>
       </c>
     </row>
@@ -12585,7 +12585,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000665</t>
+          <t>MDT-12-II-2024-004775</t>
         </is>
       </c>
     </row>
@@ -12633,7 +12633,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000666</t>
+          <t>MDT-12-II-2024-004776</t>
         </is>
       </c>
     </row>
@@ -12681,7 +12681,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000667</t>
+          <t>MDT-12-II-2024-004777</t>
         </is>
       </c>
     </row>
@@ -12729,7 +12729,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000668</t>
+          <t>MDT-12-II-2024-004778</t>
         </is>
       </c>
     </row>
@@ -12777,7 +12777,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000669</t>
+          <t>MDT-12-II-2024-004779</t>
         </is>
       </c>
     </row>
@@ -12825,7 +12825,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000670</t>
+          <t>MDT-12-II-2024-004780</t>
         </is>
       </c>
     </row>
@@ -12873,7 +12873,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000671</t>
+          <t>MDT-12-II-2024-004781</t>
         </is>
       </c>
     </row>
@@ -12921,7 +12921,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000672</t>
+          <t>MDT-12-II-2024-004782</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000673</t>
+          <t>MDT-12-II-2024-004783</t>
         </is>
       </c>
     </row>
@@ -13017,7 +13017,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000674</t>
+          <t>MDT-12-II-2024-004784</t>
         </is>
       </c>
     </row>
@@ -13065,7 +13065,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000675</t>
+          <t>MDT-12-II-2024-004785</t>
         </is>
       </c>
     </row>
@@ -13113,7 +13113,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000676</t>
+          <t>MDT-12-II-2024-004786</t>
         </is>
       </c>
     </row>
@@ -13161,7 +13161,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000677</t>
+          <t>MDT-12-II-2024-004787</t>
         </is>
       </c>
     </row>
@@ -13209,7 +13209,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000678</t>
+          <t>MDT-12-II-2024-004788</t>
         </is>
       </c>
     </row>
@@ -13257,7 +13257,7 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000679</t>
+          <t>MDT-12-II-2024-004789</t>
         </is>
       </c>
     </row>
@@ -13305,7 +13305,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000680</t>
+          <t>MDT-12-II-2024-004790</t>
         </is>
       </c>
     </row>
@@ -13353,7 +13353,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000681</t>
+          <t>MDT-12-II-2024-004791</t>
         </is>
       </c>
     </row>
@@ -13401,7 +13401,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000682</t>
+          <t>MDT-12-II-2024-004792</t>
         </is>
       </c>
     </row>
@@ -13449,7 +13449,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000683</t>
+          <t>MDT-12-II-2024-004793</t>
         </is>
       </c>
     </row>
@@ -13497,7 +13497,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000684</t>
+          <t>MDT-12-II-2024-004794</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000685</t>
+          <t>MDT-12-II-2024-004795</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000686</t>
+          <t>MDT-12-II-2024-004796</t>
         </is>
       </c>
     </row>
@@ -13641,7 +13641,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000687</t>
+          <t>MDT-12-II-2024-004797</t>
         </is>
       </c>
     </row>
@@ -13689,7 +13689,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000688</t>
+          <t>MDT-12-II-2024-004798</t>
         </is>
       </c>
     </row>
@@ -13737,7 +13737,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000689</t>
+          <t>MDT-12-II-2024-004799</t>
         </is>
       </c>
     </row>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000690</t>
+          <t>MDT-12-II-2024-004800</t>
         </is>
       </c>
     </row>
@@ -13833,7 +13833,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000691</t>
+          <t>MDT-12-II-2024-004801</t>
         </is>
       </c>
     </row>
@@ -13881,7 +13881,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000692</t>
+          <t>MDT-12-II-2024-004802</t>
         </is>
       </c>
     </row>
@@ -13929,7 +13929,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000693</t>
+          <t>MDT-12-II-2024-004803</t>
         </is>
       </c>
     </row>
@@ -13977,7 +13977,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000694</t>
+          <t>MDT-12-II-2024-004804</t>
         </is>
       </c>
     </row>
@@ -14025,7 +14025,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000695</t>
+          <t>MDT-12-II-2024-004805</t>
         </is>
       </c>
     </row>
@@ -14073,7 +14073,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000696</t>
+          <t>MDT-12-II-2024-004806</t>
         </is>
       </c>
     </row>
@@ -14121,7 +14121,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000697</t>
+          <t>MDT-12-II-2024-004807</t>
         </is>
       </c>
     </row>
@@ -14169,7 +14169,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000698</t>
+          <t>MDT-12-II-2024-004808</t>
         </is>
       </c>
     </row>
@@ -14217,7 +14217,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000699</t>
+          <t>MDT-12-II-2024-004809</t>
         </is>
       </c>
     </row>
@@ -14265,7 +14265,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000700</t>
+          <t>MDT-12-II-2024-004810</t>
         </is>
       </c>
     </row>
@@ -14313,7 +14313,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000701</t>
+          <t>MDT-12-II-2024-004811</t>
         </is>
       </c>
     </row>
@@ -14361,7 +14361,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000702</t>
+          <t>MDT-12-II-2024-004812</t>
         </is>
       </c>
     </row>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000703</t>
+          <t>MDT-12-II-2024-004813</t>
         </is>
       </c>
     </row>
@@ -14457,7 +14457,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000704</t>
+          <t>MDT-12-II-2024-004814</t>
         </is>
       </c>
     </row>
@@ -14505,7 +14505,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000705</t>
+          <t>MDT-12-II-2024-004815</t>
         </is>
       </c>
     </row>
@@ -14553,7 +14553,7 @@
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000706</t>
+          <t>MDT-12-II-2024-004816</t>
         </is>
       </c>
     </row>
@@ -14601,7 +14601,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000707</t>
+          <t>MDT-12-II-2024-004817</t>
         </is>
       </c>
     </row>
@@ -14649,7 +14649,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000708</t>
+          <t>MDT-12-II-2024-004818</t>
         </is>
       </c>
     </row>
@@ -14697,7 +14697,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000709</t>
+          <t>MDT-12-II-2024-004819</t>
         </is>
       </c>
     </row>
@@ -14745,7 +14745,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000710</t>
+          <t>MDT-12-II-2024-004820</t>
         </is>
       </c>
     </row>
@@ -14793,7 +14793,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000711</t>
+          <t>MDT-12-II-2024-004821</t>
         </is>
       </c>
     </row>
@@ -14841,7 +14841,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000712</t>
+          <t>MDT-12-II-2024-004822</t>
         </is>
       </c>
     </row>
@@ -14889,7 +14889,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000713</t>
+          <t>MDT-12-II-2024-004823</t>
         </is>
       </c>
     </row>
@@ -14937,7 +14937,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000714</t>
+          <t>MDT-12-II-2024-004824</t>
         </is>
       </c>
     </row>
@@ -14985,7 +14985,7 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000715</t>
+          <t>MDT-12-II-2024-004825</t>
         </is>
       </c>
     </row>
@@ -15033,7 +15033,7 @@
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000716</t>
+          <t>MDT-12-II-2024-004826</t>
         </is>
       </c>
     </row>
@@ -15081,7 +15081,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000717</t>
+          <t>MDT-12-II-2024-004827</t>
         </is>
       </c>
     </row>
@@ -15129,7 +15129,7 @@
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000718</t>
+          <t>MDT-12-II-2024-004828</t>
         </is>
       </c>
     </row>
@@ -15177,7 +15177,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000719</t>
+          <t>MDT-12-II-2024-004829</t>
         </is>
       </c>
     </row>
@@ -15225,7 +15225,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000720</t>
+          <t>MDT-12-II-2024-004830</t>
         </is>
       </c>
     </row>
@@ -15269,7 +15269,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000721</t>
+          <t>MDT-12-II-2024-004831</t>
         </is>
       </c>
     </row>
@@ -15317,7 +15317,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000722</t>
+          <t>MDT-12-II-2024-004832</t>
         </is>
       </c>
     </row>
@@ -15365,7 +15365,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000723</t>
+          <t>MDT-12-II-2024-004833</t>
         </is>
       </c>
     </row>
@@ -15413,7 +15413,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000724</t>
+          <t>MDT-12-II-2024-004834</t>
         </is>
       </c>
     </row>
@@ -15461,7 +15461,7 @@
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000725</t>
+          <t>MDT-12-II-2024-004835</t>
         </is>
       </c>
     </row>
@@ -15509,7 +15509,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000726</t>
+          <t>MDT-12-II-2024-004836</t>
         </is>
       </c>
     </row>
@@ -15557,7 +15557,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000727</t>
+          <t>MDT-12-II-2024-004837</t>
         </is>
       </c>
     </row>
@@ -15605,7 +15605,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000728</t>
+          <t>MDT-12-II-2024-004838</t>
         </is>
       </c>
     </row>
@@ -15653,7 +15653,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000729</t>
+          <t>MDT-12-II-2024-004839</t>
         </is>
       </c>
     </row>
@@ -15701,7 +15701,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000730</t>
+          <t>MDT-12-II-2024-004840</t>
         </is>
       </c>
     </row>
@@ -15749,7 +15749,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000731</t>
+          <t>MDT-12-II-2024-004841</t>
         </is>
       </c>
     </row>
@@ -15797,7 +15797,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000732</t>
+          <t>MDT-12-II-2024-004842</t>
         </is>
       </c>
     </row>
@@ -15845,7 +15845,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000733</t>
+          <t>MDT-12-II-2024-004843</t>
         </is>
       </c>
     </row>
@@ -15893,7 +15893,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000734</t>
+          <t>MDT-12-II-2024-004844</t>
         </is>
       </c>
     </row>
@@ -15941,7 +15941,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000735</t>
+          <t>MDT-12-II-2024-004845</t>
         </is>
       </c>
     </row>
@@ -15989,7 +15989,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000736</t>
+          <t>MDT-12-II-2024-004846</t>
         </is>
       </c>
     </row>
@@ -16037,7 +16037,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000737</t>
+          <t>MDT-12-II-2024-004847</t>
         </is>
       </c>
     </row>
@@ -16085,7 +16085,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000738</t>
+          <t>MDT-12-II-2024-004848</t>
         </is>
       </c>
     </row>
@@ -16133,7 +16133,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000739</t>
+          <t>MDT-12-II-2024-004849</t>
         </is>
       </c>
     </row>
@@ -16181,7 +16181,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000740</t>
+          <t>MDT-12-II-2024-004850</t>
         </is>
       </c>
     </row>
@@ -16229,7 +16229,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000741</t>
+          <t>MDT-12-II-2024-004851</t>
         </is>
       </c>
     </row>
@@ -16277,7 +16277,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000742</t>
+          <t>MDT-12-II-2024-004852</t>
         </is>
       </c>
     </row>
@@ -16325,7 +16325,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000743</t>
+          <t>MDT-12-II-2024-004853</t>
         </is>
       </c>
     </row>
@@ -16373,7 +16373,7 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000744</t>
+          <t>MDT-12-II-2024-004854</t>
         </is>
       </c>
     </row>
@@ -16421,7 +16421,7 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000745</t>
+          <t>MDT-12-II-2024-004855</t>
         </is>
       </c>
     </row>
@@ -16469,7 +16469,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000746</t>
+          <t>MDT-12-II-2024-004856</t>
         </is>
       </c>
     </row>
@@ -16517,7 +16517,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000747</t>
+          <t>MDT-12-II-2024-004857</t>
         </is>
       </c>
     </row>
@@ -16565,7 +16565,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000748</t>
+          <t>MDT-12-II-2024-004858</t>
         </is>
       </c>
     </row>
@@ -16613,7 +16613,7 @@
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000749</t>
+          <t>MDT-12-II-2024-004859</t>
         </is>
       </c>
     </row>
@@ -16661,7 +16661,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000750</t>
+          <t>MDT-12-II-2024-004860</t>
         </is>
       </c>
     </row>
@@ -16709,7 +16709,7 @@
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000751</t>
+          <t>MDT-12-II-2024-004861</t>
         </is>
       </c>
     </row>
@@ -16757,7 +16757,7 @@
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000752</t>
+          <t>MDT-12-II-2024-004862</t>
         </is>
       </c>
     </row>
@@ -16805,7 +16805,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000753</t>
+          <t>MDT-12-II-2024-004863</t>
         </is>
       </c>
     </row>
@@ -16853,7 +16853,7 @@
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000754</t>
+          <t>MDT-12-II-2024-004864</t>
         </is>
       </c>
     </row>
@@ -16901,7 +16901,7 @@
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000755</t>
+          <t>MDT-12-II-2024-004865</t>
         </is>
       </c>
     </row>
@@ -16949,7 +16949,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000756</t>
+          <t>MDT-12-II-2024-004866</t>
         </is>
       </c>
     </row>
@@ -16997,7 +16997,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000757</t>
+          <t>MDT-12-II-2024-004867</t>
         </is>
       </c>
     </row>
@@ -17045,7 +17045,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000758</t>
+          <t>MDT-12-II-2024-004868</t>
         </is>
       </c>
     </row>
@@ -17093,7 +17093,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000759</t>
+          <t>MDT-12-II-2024-004869</t>
         </is>
       </c>
     </row>
@@ -17141,7 +17141,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000760</t>
+          <t>MDT-12-II-2024-004870</t>
         </is>
       </c>
     </row>
@@ -17189,7 +17189,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000761</t>
+          <t>MDT-12-II-2024-004871</t>
         </is>
       </c>
     </row>
@@ -17237,7 +17237,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000762</t>
+          <t>MDT-12-II-2024-004872</t>
         </is>
       </c>
     </row>
@@ -17285,7 +17285,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000763</t>
+          <t>MDT-12-II-2024-004873</t>
         </is>
       </c>
     </row>
@@ -17333,7 +17333,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000764</t>
+          <t>MDT-12-II-2024-004874</t>
         </is>
       </c>
     </row>
@@ -17381,7 +17381,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000765</t>
+          <t>MDT-12-II-2024-004875</t>
         </is>
       </c>
     </row>
@@ -17429,7 +17429,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000766</t>
+          <t>MDT-12-II-2024-004876</t>
         </is>
       </c>
     </row>
@@ -17477,7 +17477,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000767</t>
+          <t>MDT-12-II-2024-004877</t>
         </is>
       </c>
     </row>
@@ -17525,7 +17525,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000768</t>
+          <t>MDT-12-II-2024-004878</t>
         </is>
       </c>
     </row>
@@ -17573,7 +17573,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000769</t>
+          <t>MDT-12-II-2024-004879</t>
         </is>
       </c>
     </row>
@@ -17621,7 +17621,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000770</t>
+          <t>MDT-12-II-2024-004880</t>
         </is>
       </c>
     </row>
@@ -17669,7 +17669,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000771</t>
+          <t>MDT-12-II-2024-004881</t>
         </is>
       </c>
     </row>
@@ -17717,7 +17717,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000772</t>
+          <t>MDT-12-II-2024-004882</t>
         </is>
       </c>
     </row>
@@ -17765,7 +17765,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000773</t>
+          <t>MDT-12-II-2024-004883</t>
         </is>
       </c>
     </row>
@@ -17813,7 +17813,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000774</t>
+          <t>MDT-12-II-2024-004884</t>
         </is>
       </c>
     </row>
@@ -17861,7 +17861,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000775</t>
+          <t>MDT-12-II-2024-004885</t>
         </is>
       </c>
     </row>
@@ -17909,7 +17909,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000776</t>
+          <t>MDT-12-II-2024-004886</t>
         </is>
       </c>
     </row>
@@ -17957,7 +17957,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000777</t>
+          <t>MDT-12-II-2024-004887</t>
         </is>
       </c>
     </row>
@@ -18005,7 +18005,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000778</t>
+          <t>MDT-12-II-2024-004888</t>
         </is>
       </c>
     </row>
@@ -18053,7 +18053,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000779</t>
+          <t>MDT-12-II-2024-004889</t>
         </is>
       </c>
     </row>
@@ -18101,7 +18101,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000780</t>
+          <t>MDT-12-II-2024-004890</t>
         </is>
       </c>
     </row>
@@ -18149,7 +18149,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000781</t>
+          <t>MDT-12-II-2024-004891</t>
         </is>
       </c>
     </row>
@@ -18197,7 +18197,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000782</t>
+          <t>MDT-12-II-2024-004892</t>
         </is>
       </c>
     </row>
@@ -18245,7 +18245,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000783</t>
+          <t>MDT-12-II-2024-004893</t>
         </is>
       </c>
     </row>
@@ -18293,7 +18293,7 @@
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000784</t>
+          <t>MDT-12-II-2024-004894</t>
         </is>
       </c>
     </row>
@@ -18341,7 +18341,7 @@
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000785</t>
+          <t>MDT-12-II-2024-004895</t>
         </is>
       </c>
     </row>
@@ -18389,7 +18389,7 @@
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000786</t>
+          <t>MDT-12-II-2024-004896</t>
         </is>
       </c>
     </row>
@@ -18437,7 +18437,7 @@
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000787</t>
+          <t>MDT-12-II-2024-004897</t>
         </is>
       </c>
     </row>
@@ -18485,7 +18485,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000788</t>
+          <t>MDT-12-II-2024-004898</t>
         </is>
       </c>
     </row>
@@ -18533,7 +18533,7 @@
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000789</t>
+          <t>MDT-12-II-2024-004899</t>
         </is>
       </c>
     </row>
@@ -18581,7 +18581,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000790</t>
+          <t>MDT-12-II-2024-004900</t>
         </is>
       </c>
     </row>
@@ -18627,7 +18627,7 @@
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000791</t>
+          <t>MDT-12-II-2024-004901</t>
         </is>
       </c>
     </row>
@@ -18673,7 +18673,7 @@
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000792</t>
+          <t>MDT-12-II-2024-004902</t>
         </is>
       </c>
     </row>
@@ -18719,7 +18719,7 @@
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000793</t>
+          <t>MDT-12-II-2024-004903</t>
         </is>
       </c>
     </row>
@@ -18765,7 +18765,7 @@
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000794</t>
+          <t>MDT-12-II-2024-004904</t>
         </is>
       </c>
     </row>
@@ -18811,7 +18811,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000795</t>
+          <t>MDT-12-II-2024-004905</t>
         </is>
       </c>
     </row>
@@ -18857,7 +18857,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000796</t>
+          <t>MDT-12-II-2024-004906</t>
         </is>
       </c>
     </row>
@@ -18905,7 +18905,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000797</t>
+          <t>MDT-12-II-2024-004907</t>
         </is>
       </c>
     </row>
@@ -18953,7 +18953,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000798</t>
+          <t>MDT-12-II-2024-004908</t>
         </is>
       </c>
     </row>
@@ -19001,7 +19001,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000799</t>
+          <t>MDT-12-II-2024-004909</t>
         </is>
       </c>
     </row>
@@ -19049,7 +19049,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000800</t>
+          <t>MDT-12-II-2024-004910</t>
         </is>
       </c>
     </row>
@@ -19097,7 +19097,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000801</t>
+          <t>MDT-12-II-2024-004911</t>
         </is>
       </c>
     </row>
@@ -19145,7 +19145,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000802</t>
+          <t>MDT-12-II-2024-004912</t>
         </is>
       </c>
     </row>
@@ -19193,7 +19193,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000803</t>
+          <t>MDT-12-II-2024-004913</t>
         </is>
       </c>
     </row>
@@ -19241,7 +19241,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000804</t>
+          <t>MDT-12-II-2024-004914</t>
         </is>
       </c>
     </row>
@@ -19289,7 +19289,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000805</t>
+          <t>MDT-12-II-2024-004915</t>
         </is>
       </c>
     </row>
@@ -19337,7 +19337,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000806</t>
+          <t>MDT-12-II-2024-004916</t>
         </is>
       </c>
     </row>
@@ -19385,7 +19385,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000807</t>
+          <t>MDT-12-II-2024-004917</t>
         </is>
       </c>
     </row>
@@ -19433,7 +19433,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000808</t>
+          <t>MDT-12-II-2024-004918</t>
         </is>
       </c>
     </row>
@@ -19481,7 +19481,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000809</t>
+          <t>MDT-12-II-2024-004919</t>
         </is>
       </c>
     </row>
@@ -19529,7 +19529,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000810</t>
+          <t>MDT-12-II-2024-004920</t>
         </is>
       </c>
     </row>
@@ -19577,7 +19577,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000811</t>
+          <t>MDT-12-II-2024-004921</t>
         </is>
       </c>
     </row>
@@ -19625,7 +19625,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000812</t>
+          <t>MDT-12-II-2024-004922</t>
         </is>
       </c>
     </row>
@@ -19673,7 +19673,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000813</t>
+          <t>MDT-12-II-2024-004923</t>
         </is>
       </c>
     </row>
@@ -19721,7 +19721,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000814</t>
+          <t>MDT-12-II-2024-004924</t>
         </is>
       </c>
     </row>
@@ -19769,7 +19769,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000815</t>
+          <t>MDT-12-II-2024-004925</t>
         </is>
       </c>
     </row>
@@ -19817,7 +19817,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000816</t>
+          <t>MDT-12-II-2024-004926</t>
         </is>
       </c>
     </row>
@@ -19865,7 +19865,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000817</t>
+          <t>MDT-12-II-2024-004927</t>
         </is>
       </c>
     </row>
@@ -19913,7 +19913,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000818</t>
+          <t>MDT-12-II-2024-004928</t>
         </is>
       </c>
     </row>
@@ -19961,7 +19961,7 @@
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000819</t>
+          <t>MDT-12-II-2024-004929</t>
         </is>
       </c>
     </row>
@@ -20009,7 +20009,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000820</t>
+          <t>MDT-12-II-2024-004930</t>
         </is>
       </c>
     </row>
@@ -20057,7 +20057,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000821</t>
+          <t>MDT-12-II-2024-004931</t>
         </is>
       </c>
     </row>
@@ -20105,7 +20105,7 @@
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>MDT-12-II-2024-000822</t>
+          <t>MDT-12-II-2024-004932</t>
         </is>
       </c>
     </row>
